--- a/data/derivedRelativeTraitData.xlsx
+++ b/data/derivedRelativeTraitData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="115">
   <si>
     <t>rho(R) v rho(phi)</t>
   </si>
@@ -381,7 +381,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="199">
+  <borders count="259">
     <border>
       <left/>
       <right/>
@@ -587,11 +587,71 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -791,6 +851,66 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="196" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="197" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="198" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="199" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="200" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="201" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="202" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="203" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="204" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="205" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="206" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="207" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="208" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="209" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="210" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="211" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="212" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="213" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="214" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="215" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="216" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="217" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="218" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="219" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="220" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="221" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="222" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="223" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="224" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="225" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="226" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="227" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="228" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="229" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="230" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="231" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="232" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="233" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="234" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="235" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="236" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="237" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="238" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="239" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="240" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="241" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="242" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="243" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="244" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="245" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="246" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="247" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="248" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="249" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="250" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="251" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="252" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="253" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="254" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="255" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="256" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="257" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="258" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -806,16 +926,16 @@
     <col min="1" max="1" width="17" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="10.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="2.140625" customWidth="true"/>
     <col min="6" max="6" width="12.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.7109375" customWidth="true"/>
-    <col min="8" max="8" width="2.140625" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
     <col min="9" max="9" width="11.7109375" customWidth="true"/>
     <col min="10" max="10" width="2.140625" customWidth="true"/>
     <col min="11" max="11" width="12.7109375" customWidth="true"/>
-    <col min="12" max="12" width="11.7109375" customWidth="true"/>
-    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="11.7109375" customWidth="true"/>
     <col min="14" max="14" width="11.7109375" customWidth="true"/>
     <col min="15" max="15" width="11.7109375" customWidth="true"/>
     <col min="16" max="16" width="11.7109375" customWidth="true"/>
@@ -825,12 +945,12 @@
     <col min="20" max="20" width="11.7109375" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
     <col min="22" max="22" width="11.7109375" customWidth="true"/>
-    <col min="23" max="23" width="11.7109375" customWidth="true"/>
+    <col min="23" max="23" width="10.7109375" customWidth="true"/>
     <col min="24" max="24" width="11.7109375" customWidth="true"/>
     <col min="25" max="25" width="12.7109375" customWidth="true"/>
-    <col min="26" max="26" width="11.7109375" customWidth="true"/>
+    <col min="26" max="26" width="10.7109375" customWidth="true"/>
     <col min="27" max="27" width="11.7109375" customWidth="true"/>
-    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="11.7109375" customWidth="true"/>
     <col min="29" max="29" width="12.7109375" customWidth="true"/>
     <col min="30" max="30" width="12.7109375" customWidth="true"/>
     <col min="31" max="31" width="12.7109375" customWidth="true"/>
@@ -839,353 +959,307 @@
     <col min="34" max="34" width="12.7109375" customWidth="true"/>
     <col min="35" max="35" width="12.7109375" customWidth="true"/>
     <col min="36" max="36" width="11.7109375" customWidth="true"/>
-    <col min="37" max="37" width="10.7109375" customWidth="true"/>
-    <col min="38" max="38" width="2.140625" customWidth="true"/>
+    <col min="37" max="37" width="11.7109375" customWidth="true"/>
+    <col min="38" max="38" width="11.7109375" customWidth="true"/>
     <col min="39" max="39" width="11.7109375" customWidth="true"/>
     <col min="40" max="40" width="12.7109375" customWidth="true"/>
-    <col min="41" max="41" width="2.140625" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
     <col min="42" max="42" width="11.7109375" customWidth="true"/>
     <col min="43" max="43" width="12.7109375" customWidth="true"/>
-    <col min="44" max="44" width="12.7109375" customWidth="true"/>
-    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="11.7109375" customWidth="true"/>
+    <col min="45" max="45" width="11.7109375" customWidth="true"/>
     <col min="46" max="46" width="12.7109375" customWidth="true"/>
     <col min="47" max="47" width="2.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="253" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-      <c r="H1" s="0"/>
-      <c r="I1" s="0"/>
-      <c r="J1" s="0"/>
-      <c r="K1" s="0"/>
-      <c r="L1" s="0"/>
-      <c r="M1" s="0"/>
-      <c r="N1" s="0"/>
-      <c r="O1" s="0"/>
-      <c r="P1" s="0"/>
-      <c r="Q1" s="0"/>
-      <c r="R1" s="0"/>
-      <c r="S1" s="0"/>
-      <c r="T1" s="0"/>
-      <c r="U1" s="0"/>
-      <c r="V1" s="0"/>
-      <c r="W1" s="0"/>
-      <c r="X1" s="0"/>
-      <c r="Y1" s="0"/>
-      <c r="Z1" s="0"/>
-      <c r="AA1" s="0"/>
-      <c r="AB1" s="0"/>
-      <c r="AC1" s="0"/>
-      <c r="AD1" s="0"/>
-      <c r="AE1" s="0"/>
-      <c r="AF1" s="0"/>
-      <c r="AG1" s="0"/>
-      <c r="AH1" s="0"/>
-      <c r="AI1" s="0"/>
-      <c r="AJ1" s="0"/>
-      <c r="AK1" s="0"/>
-      <c r="AL1" s="0"/>
-      <c r="AM1" s="0"/>
-      <c r="AN1" s="0"/>
-      <c r="AO1" s="0"/>
-      <c r="AP1" s="0"/>
-      <c r="AQ1" s="0"/>
-      <c r="AR1" s="0"/>
-      <c r="AS1" s="0"/>
-      <c r="AT1" s="0"/>
-      <c r="AU1" s="0"/>
     </row>
     <row r="2">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="253" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="0">
-        <v>1.230365019185014</v>
-      </c>
-      <c r="C2" s="0">
-        <v>1.2464660049908109</v>
-      </c>
-      <c r="D2" s="0">
-        <v>1.3724752099983799</v>
-      </c>
-      <c r="E2" s="0">
-        <v>0</v>
-      </c>
-      <c r="F2" s="0">
-        <v>0.99536976848260128</v>
-      </c>
-      <c r="G2" s="0">
-        <v>1.1250765601497708</v>
-      </c>
-      <c r="H2" s="0">
-        <v>0</v>
-      </c>
-      <c r="I2" s="0">
-        <v>1.1596601319592665</v>
-      </c>
-      <c r="J2" s="0">
-        <v>0</v>
-      </c>
-      <c r="K2" s="0">
-        <v>0.90259027415991933</v>
-      </c>
-      <c r="L2" s="0">
-        <v>0.87564038101718789</v>
-      </c>
-      <c r="M2" s="0">
-        <v>0.28517329485479614</v>
-      </c>
-      <c r="N2" s="0">
-        <v>1.183716644513416</v>
-      </c>
-      <c r="O2" s="0">
-        <v>1.1837166469394458</v>
-      </c>
-      <c r="P2" s="0">
-        <v>1.0934220608452829</v>
-      </c>
-      <c r="Q2" s="0">
-        <v>1.2236046814187291</v>
-      </c>
-      <c r="R2" s="0">
-        <v>1.3155879509913393</v>
-      </c>
-      <c r="S2" s="0">
-        <v>0.27139317617408915</v>
-      </c>
-      <c r="T2" s="0">
-        <v>1.1582915386314394</v>
-      </c>
-      <c r="U2" s="0">
-        <v>1.3981010923252934</v>
-      </c>
-      <c r="V2" s="0">
-        <v>1.0131233633385526</v>
-      </c>
-      <c r="W2" s="0">
-        <v>1.5035481113713205</v>
-      </c>
-      <c r="X2" s="0">
-        <v>1.1055927671562231</v>
-      </c>
-      <c r="Y2" s="0">
-        <v>0.978398070414353</v>
-      </c>
-      <c r="Z2" s="0">
-        <v>1.2702235364646863</v>
-      </c>
-      <c r="AA2" s="0">
-        <v>1.3770199384861843</v>
-      </c>
-      <c r="AB2" s="0">
-        <v>0.94952345868492793</v>
-      </c>
-      <c r="AC2" s="0">
-        <v>0.9571378433172355</v>
-      </c>
-      <c r="AD2" s="0">
-        <v>0.87270772526557505</v>
-      </c>
-      <c r="AE2" s="0">
-        <v>0.84948570254302302</v>
-      </c>
-      <c r="AF2" s="0">
-        <v>1.0193443640483444</v>
-      </c>
-      <c r="AG2" s="0">
-        <v>0.83555263337075492</v>
-      </c>
-      <c r="AH2" s="0">
-        <v>0.87270764626787478</v>
-      </c>
-      <c r="AI2" s="0">
-        <v>0.83415395767892908</v>
-      </c>
-      <c r="AJ2" s="0">
-        <v>1.2655710788448935</v>
-      </c>
-      <c r="AK2" s="0">
-        <v>1.0437826300043864</v>
-      </c>
-      <c r="AL2" s="0">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="0">
-        <v>1.0474378428162066</v>
-      </c>
-      <c r="AN2" s="0">
-        <v>0.90321347436481103</v>
-      </c>
-      <c r="AO2" s="0">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="0">
-        <v>1.3293645511384491</v>
-      </c>
-      <c r="AQ2" s="0">
-        <v>0.83555310441832553</v>
-      </c>
-      <c r="AR2" s="0">
-        <v>0.86804060193566801</v>
-      </c>
-      <c r="AS2" s="0">
-        <v>0.70001412985173683</v>
-      </c>
-      <c r="AT2" s="0">
-        <v>0.72371009261739905</v>
-      </c>
-      <c r="AU2" s="0">
+      <c r="B2">
+        <v>1.2225653451737377</v>
+      </c>
+      <c r="C2">
+        <v>1.2227417718610891</v>
+      </c>
+      <c r="D2">
+        <v>1.371326897667013</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.99720342693639941</v>
+      </c>
+      <c r="G2">
+        <v>1.124601897918692</v>
+      </c>
+      <c r="H2">
+        <v>0.27626642345031854</v>
+      </c>
+      <c r="I2">
+        <v>1.1619567878623589</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0.9016986665020158</v>
+      </c>
+      <c r="L2">
+        <v>0.87516280118335799</v>
+      </c>
+      <c r="M2">
+        <v>0.29511033699171069</v>
+      </c>
+      <c r="N2">
+        <v>1.0150691775298697</v>
+      </c>
+      <c r="O2">
+        <v>1.0324487562043445</v>
+      </c>
+      <c r="P2">
+        <v>1.09331973468264</v>
+      </c>
+      <c r="Q2">
+        <v>1.2216694391041241</v>
+      </c>
+      <c r="R2">
+        <v>1.3096326245692809</v>
+      </c>
+      <c r="S2">
+        <v>0.27120702968636612</v>
+      </c>
+      <c r="T2">
+        <v>1.1576977292484694</v>
+      </c>
+      <c r="U2">
+        <v>1.3976674734930343</v>
+      </c>
+      <c r="V2">
+        <v>1.0128192555529847</v>
+      </c>
+      <c r="W2">
+        <v>1.4990470503176212</v>
+      </c>
+      <c r="X2">
+        <v>1.1050875972006802</v>
+      </c>
+      <c r="Y2">
+        <v>0.98263078743624654</v>
+      </c>
+      <c r="Z2">
+        <v>1.2902258395952382</v>
+      </c>
+      <c r="AA2">
+        <v>1.3806562663132593</v>
+      </c>
+      <c r="AB2">
+        <v>0.95048725402307666</v>
+      </c>
+      <c r="AC2">
+        <v>0.96702994792180896</v>
+      </c>
+      <c r="AD2">
+        <v>0.87318415388316795</v>
+      </c>
+      <c r="AE2">
+        <v>0.8479276033164157</v>
+      </c>
+      <c r="AF2">
+        <v>1.0186251979812206</v>
+      </c>
+      <c r="AG2">
+        <v>0.83497955205443153</v>
+      </c>
+      <c r="AH2">
+        <v>0.87318403275624634</v>
+      </c>
+      <c r="AI2">
+        <v>0.83425456558703626</v>
+      </c>
+      <c r="AJ2">
+        <v>1.264014353580325</v>
+      </c>
+      <c r="AK2">
+        <v>1.043066722718071</v>
+      </c>
+      <c r="AL2">
+        <v>1.2827693281138068</v>
+      </c>
+      <c r="AM2">
+        <v>1.0467192751560557</v>
+      </c>
+      <c r="AN2">
+        <v>0.9029478006450723</v>
+      </c>
+      <c r="AO2">
+        <v>0.27301431079464478</v>
+      </c>
+      <c r="AP2">
+        <v>1.3284527690829473</v>
+      </c>
+      <c r="AQ2">
+        <v>0.83498002312279562</v>
+      </c>
+      <c r="AR2">
+        <v>0.86695768095582182</v>
+      </c>
+      <c r="AS2">
+        <v>0.6997617219656237</v>
+      </c>
+      <c r="AT2">
+        <v>0.72382961789979716</v>
+      </c>
+      <c r="AU2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="157" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="0">
-        <v>0</v>
-      </c>
-      <c r="C3" s="0">
-        <v>0.32413602667856151</v>
-      </c>
-      <c r="D3" s="0">
-        <v>0.41579047983177198</v>
-      </c>
-      <c r="E3" s="0">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0">
+      <c r="A3" s="253" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.32413602667856145</v>
+      </c>
+      <c r="D3">
+        <v>0.41579047983177225</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>0.30846024766881186</v>
       </c>
-      <c r="H3" s="0">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>0.020263811890651885</v>
       </c>
-      <c r="J3" s="0">
-        <v>0</v>
-      </c>
-      <c r="K3" s="0">
-        <v>0</v>
-      </c>
-      <c r="L3" s="0">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>0.87189617451517643</v>
       </c>
-      <c r="M3" s="0">
+      <c r="M3">
         <v>0.0024002209052868583</v>
       </c>
-      <c r="N3" s="0">
-        <v>0.28394825718473199</v>
-      </c>
-      <c r="O3" s="0">
+      <c r="N3">
+        <v>0.28394825718473204</v>
+      </c>
+      <c r="O3">
         <v>0.030331995157076404</v>
       </c>
-      <c r="P3" s="0">
-        <v>0.32570785275812991</v>
-      </c>
-      <c r="Q3" s="0">
-        <v>0</v>
-      </c>
-      <c r="R3" s="0">
+      <c r="P3">
+        <v>0.32570785275812986</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>0.78185602922746844</v>
       </c>
-      <c r="S3" s="0">
-        <v>0</v>
-      </c>
-      <c r="T3" s="0">
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>0.029163746043883682</v>
       </c>
-      <c r="U3" s="0">
-        <v>0.8998704305529005</v>
-      </c>
-      <c r="V3" s="0">
-        <v>0.40368317084050215</v>
-      </c>
-      <c r="W3" s="0">
-        <v>0.76588287771617902</v>
-      </c>
-      <c r="X3" s="0">
+      <c r="U3">
+        <v>0.89987043055290039</v>
+      </c>
+      <c r="V3">
+        <v>0.40368317084050204</v>
+      </c>
+      <c r="W3">
+        <v>0.76588287771617924</v>
+      </c>
+      <c r="X3">
         <v>0.48662885787718518</v>
       </c>
-      <c r="Y3" s="0">
+      <c r="Y3">
         <v>0.018224686165806407</v>
       </c>
-      <c r="Z3" s="0">
+      <c r="Z3">
         <v>0.11153592897045392</v>
       </c>
-      <c r="AA3" s="0">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="0">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
         <v>0.031691412306973379</v>
       </c>
-      <c r="AC3" s="0">
-        <v>0.073132394485864186</v>
-      </c>
-      <c r="AD3" s="0">
-        <v>0.61205633084814881</v>
-      </c>
-      <c r="AE3" s="0">
-        <v>0.21686951719450284</v>
-      </c>
-      <c r="AF3" s="0">
+      <c r="AC3">
+        <v>0.073132394485864158</v>
+      </c>
+      <c r="AD3">
+        <v>0.6120563308481487</v>
+      </c>
+      <c r="AE3">
+        <v>0.21686951719450279</v>
+      </c>
+      <c r="AF3">
         <v>0.0053951868136536459</v>
       </c>
-      <c r="AG3" s="0">
+      <c r="AG3">
         <v>0.97342764289810735</v>
       </c>
-      <c r="AH3" s="0">
+      <c r="AH3">
         <v>0.57348286921982194</v>
       </c>
-      <c r="AI3" s="0">
-        <v>0.018203445272839267</v>
-      </c>
-      <c r="AJ3" s="0">
+      <c r="AI3">
+        <v>0.018203445272839271</v>
+      </c>
+      <c r="AJ3">
         <v>0.011724972917861466</v>
       </c>
-      <c r="AK3" s="0">
-        <v>0.18558168185390511</v>
-      </c>
-      <c r="AL3" s="0">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="0">
+      <c r="AK3">
+        <v>0.18558168185390506</v>
+      </c>
+      <c r="AL3">
+        <v>0.0061598589604706967</v>
+      </c>
+      <c r="AM3">
         <v>0.32250047792009173</v>
       </c>
-      <c r="AN3" s="0">
+      <c r="AN3">
         <v>0.013339280783364132</v>
       </c>
-      <c r="AO3" s="0">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="0">
-        <v>0.026699802459695405</v>
-      </c>
-      <c r="AQ3" s="0">
-        <v>0.9734488837910743</v>
-      </c>
-      <c r="AR3" s="0">
-        <v>1.1138087045179377</v>
-      </c>
-      <c r="AS3" s="0">
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0.026699802459695398</v>
+      </c>
+      <c r="AQ3">
+        <v>0.97344888379107464</v>
+      </c>
+      <c r="AR3">
+        <v>1.1138087045179379</v>
+      </c>
+      <c r="AS3">
         <v>0.012489645064678518</v>
       </c>
-      <c r="AT3" s="0">
-        <v>0.30274644746065121</v>
-      </c>
-      <c r="AU3" s="0">
+      <c r="AT3">
+        <v>0.30274644746065132</v>
+      </c>
+      <c r="AU3">
         <v>1</v>
       </c>
     </row>
@@ -1205,7 +1279,7 @@
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
     <col min="7" max="7" width="11.7109375" customWidth="true"/>
-    <col min="8" max="8" width="2.140625" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
     <col min="9" max="9" width="11.7109375" customWidth="true"/>
     <col min="10" max="10" width="12.7109375" customWidth="true"/>
     <col min="11" max="11" width="11.7109375" customWidth="true"/>
@@ -1217,370 +1291,324 @@
     <col min="17" max="17" width="11.7109375" customWidth="true"/>
     <col min="18" max="18" width="11.7109375" customWidth="true"/>
     <col min="19" max="19" width="12.7109375" customWidth="true"/>
-    <col min="20" max="20" width="11.7109375" customWidth="true"/>
+    <col min="20" max="20" width="10.7109375" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
     <col min="22" max="22" width="11.7109375" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
     <col min="24" max="24" width="11.7109375" customWidth="true"/>
-    <col min="25" max="25" width="9.7109375" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
     <col min="27" max="27" width="11.7109375" customWidth="true"/>
-    <col min="28" max="28" width="10.7109375" customWidth="true"/>
+    <col min="28" max="28" width="11.7109375" customWidth="true"/>
     <col min="29" max="29" width="11.7109375" customWidth="true"/>
     <col min="30" max="30" width="12.7109375" customWidth="true"/>
     <col min="31" max="31" width="12.7109375" customWidth="true"/>
     <col min="32" max="32" width="11.7109375" customWidth="true"/>
-    <col min="33" max="33" width="10.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
     <col min="34" max="34" width="12.7109375" customWidth="true"/>
     <col min="35" max="35" width="11.7109375" customWidth="true"/>
     <col min="36" max="36" width="11.7109375" customWidth="true"/>
     <col min="37" max="37" width="12.7109375" customWidth="true"/>
-    <col min="38" max="38" width="2.140625" customWidth="true"/>
-    <col min="39" max="39" width="10.7109375" customWidth="true"/>
+    <col min="38" max="38" width="11.7109375" customWidth="true"/>
+    <col min="39" max="39" width="11.7109375" customWidth="true"/>
     <col min="40" max="40" width="12.7109375" customWidth="true"/>
-    <col min="41" max="41" width="2.140625" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
     <col min="42" max="42" width="11.7109375" customWidth="true"/>
     <col min="43" max="43" width="12.7109375" customWidth="true"/>
     <col min="44" max="44" width="12.7109375" customWidth="true"/>
     <col min="45" max="45" width="12.7109375" customWidth="true"/>
-    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="11.7109375" customWidth="true"/>
     <col min="47" max="47" width="2.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="255" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-      <c r="H1" s="0"/>
-      <c r="I1" s="0"/>
-      <c r="J1" s="0"/>
-      <c r="K1" s="0"/>
-      <c r="L1" s="0"/>
-      <c r="M1" s="0"/>
-      <c r="N1" s="0"/>
-      <c r="O1" s="0"/>
-      <c r="P1" s="0"/>
-      <c r="Q1" s="0"/>
-      <c r="R1" s="0"/>
-      <c r="S1" s="0"/>
-      <c r="T1" s="0"/>
-      <c r="U1" s="0"/>
-      <c r="V1" s="0"/>
-      <c r="W1" s="0"/>
-      <c r="X1" s="0"/>
-      <c r="Y1" s="0"/>
-      <c r="Z1" s="0"/>
-      <c r="AA1" s="0"/>
-      <c r="AB1" s="0"/>
-      <c r="AC1" s="0"/>
-      <c r="AD1" s="0"/>
-      <c r="AE1" s="0"/>
-      <c r="AF1" s="0"/>
-      <c r="AG1" s="0"/>
-      <c r="AH1" s="0"/>
-      <c r="AI1" s="0"/>
-      <c r="AJ1" s="0"/>
-      <c r="AK1" s="0"/>
-      <c r="AL1" s="0"/>
-      <c r="AM1" s="0"/>
-      <c r="AN1" s="0"/>
-      <c r="AO1" s="0"/>
-      <c r="AP1" s="0"/>
-      <c r="AQ1" s="0"/>
-      <c r="AR1" s="0"/>
-      <c r="AS1" s="0"/>
-      <c r="AT1" s="0"/>
-      <c r="AU1" s="0"/>
     </row>
     <row r="2">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="255" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="0">
-        <v>1.4104189217600909</v>
-      </c>
-      <c r="C2" s="0">
-        <v>1.428876276691847</v>
-      </c>
-      <c r="D2" s="0">
-        <v>1.398075124630104</v>
-      </c>
-      <c r="E2" s="0">
-        <v>1.0866673972916354</v>
-      </c>
-      <c r="F2" s="0">
-        <v>1.0760909179476097</v>
-      </c>
-      <c r="G2" s="0">
-        <v>1.2736607086221496</v>
-      </c>
-      <c r="H2" s="0">
-        <v>0</v>
-      </c>
-      <c r="I2" s="0">
-        <v>1.3293691137813395</v>
-      </c>
-      <c r="J2" s="0">
-        <v>0.95708910786932011</v>
-      </c>
-      <c r="K2" s="0">
-        <v>1.034678698136873</v>
-      </c>
-      <c r="L2" s="0">
-        <v>0.9539487011994715</v>
-      </c>
-      <c r="M2" s="0">
-        <v>0.32424988971947655</v>
-      </c>
-      <c r="N2" s="0">
-        <v>1.3569461487992123</v>
-      </c>
-      <c r="O2" s="0">
-        <v>1.356946152111574</v>
-      </c>
-      <c r="P2" s="0">
-        <v>1.2062929974539043</v>
-      </c>
-      <c r="Q2" s="0">
-        <v>1.0773569274026393</v>
-      </c>
-      <c r="R2" s="0">
-        <v>1.5081159947321114</v>
-      </c>
-      <c r="S2" s="0">
-        <v>0.23876071116983685</v>
-      </c>
-      <c r="T2" s="0">
-        <v>1.3051308807760835</v>
-      </c>
-      <c r="U2" s="0">
-        <v>1.6027044135589097</v>
-      </c>
-      <c r="V2" s="0">
-        <v>1.1595903793547722</v>
-      </c>
-      <c r="W2" s="0">
-        <v>1.4605604142698492</v>
-      </c>
-      <c r="X2" s="0">
-        <v>1.0997745628012829</v>
-      </c>
-      <c r="Y2" s="0">
-        <v>1.0105274996464435</v>
-      </c>
-      <c r="Z2" s="0">
-        <v>1.4561127756955596</v>
-      </c>
-      <c r="AA2" s="0">
-        <v>1.3681902441228697</v>
-      </c>
-      <c r="AB2" s="0">
-        <v>1.0884802603464003</v>
-      </c>
-      <c r="AC2" s="0">
-        <v>1.0122428248292701</v>
-      </c>
-      <c r="AD2" s="0">
-        <v>0.97063030075455881</v>
-      </c>
-      <c r="AE2" s="0">
-        <v>0.94989000449652439</v>
-      </c>
-      <c r="AF2" s="0">
-        <v>1.0997610057830101</v>
-      </c>
-      <c r="AG2" s="0">
-        <v>0.87531474003501564</v>
-      </c>
-      <c r="AH2" s="0">
-        <v>0.97063039215230884</v>
-      </c>
-      <c r="AI2" s="0">
-        <v>0.94735100798833982</v>
-      </c>
-      <c r="AJ2" s="0">
-        <v>1.1302167334086697</v>
-      </c>
-      <c r="AK2" s="0">
-        <v>0.98826072644589469</v>
-      </c>
-      <c r="AL2" s="0">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="0">
-        <v>1.1865110701080581</v>
-      </c>
-      <c r="AN2" s="0">
-        <v>0.97718762735472764</v>
-      </c>
-      <c r="AO2" s="0">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="0">
-        <v>1.4059870146010311</v>
-      </c>
-      <c r="AQ2" s="0">
-        <v>0.8753140965467775</v>
-      </c>
-      <c r="AR2" s="0">
-        <v>0.99507289378830543</v>
-      </c>
-      <c r="AS2" s="0">
-        <v>0.80135816526425663</v>
-      </c>
-      <c r="AT2" s="0">
-        <v>0.80729702241760271</v>
-      </c>
-      <c r="AU2" s="0">
+      <c r="B2">
+        <v>1.4030198419920126</v>
+      </c>
+      <c r="C2">
+        <v>1.4032223108338664</v>
+      </c>
+      <c r="D2">
+        <v>1.398727915956137</v>
+      </c>
+      <c r="E2">
+        <v>1.0871786806361925</v>
+      </c>
+      <c r="F2">
+        <v>1.0752725028049515</v>
+      </c>
+      <c r="G2">
+        <v>1.2740554975783689</v>
+      </c>
+      <c r="H2">
+        <v>0.31703209890910827</v>
+      </c>
+      <c r="I2">
+        <v>1.3334648073728095</v>
+      </c>
+      <c r="J2">
+        <v>0.95804692789477031</v>
+      </c>
+      <c r="K2">
+        <v>1.0347922485737118</v>
+      </c>
+      <c r="L2">
+        <v>0.95427644530377997</v>
+      </c>
+      <c r="M2">
+        <v>0.33839519529719558</v>
+      </c>
+      <c r="N2">
+        <v>1.1648935256182864</v>
+      </c>
+      <c r="O2">
+        <v>1.1848386158354876</v>
+      </c>
+      <c r="P2">
+        <v>1.2064544649016355</v>
+      </c>
+      <c r="Q2">
+        <v>1.0785321418562996</v>
+      </c>
+      <c r="R2">
+        <v>1.5029385381016367</v>
+      </c>
+      <c r="S2">
+        <v>0.2388590898089693</v>
+      </c>
+      <c r="T2">
+        <v>1.3055724695862276</v>
+      </c>
+      <c r="U2">
+        <v>1.603967611376379</v>
+      </c>
+      <c r="V2">
+        <v>1.1605578184241756</v>
+      </c>
+      <c r="W2">
+        <v>1.4627308585802532</v>
+      </c>
+      <c r="X2">
+        <v>1.1000983489871163</v>
+      </c>
+      <c r="Y2">
+        <v>1.0082906881404914</v>
+      </c>
+      <c r="Z2">
+        <v>1.4806658746989447</v>
+      </c>
+      <c r="AA2">
+        <v>1.3662652291676247</v>
+      </c>
+      <c r="AB2">
+        <v>1.0907821833783984</v>
+      </c>
+      <c r="AC2">
+        <v>1.0067041960905265</v>
+      </c>
+      <c r="AD2">
+        <v>0.97050663554360195</v>
+      </c>
+      <c r="AE2">
+        <v>0.95067719576225462</v>
+      </c>
+      <c r="AF2">
+        <v>1.1002145742658636</v>
+      </c>
+      <c r="AG2">
+        <v>0.8756754034421409</v>
+      </c>
+      <c r="AH2">
+        <v>0.97050677754247872</v>
+      </c>
+      <c r="AI2">
+        <v>0.94741552699232223</v>
+      </c>
+      <c r="AJ2">
+        <v>1.1313244749741849</v>
+      </c>
+      <c r="AK2">
+        <v>0.98866794209917808</v>
+      </c>
+      <c r="AL2">
+        <v>1.0343167681532655</v>
+      </c>
+      <c r="AM2">
+        <v>1.1870001381637383</v>
+      </c>
+      <c r="AN2">
+        <v>0.97741034628873191</v>
+      </c>
+      <c r="AO2">
+        <v>0.31331208327811461</v>
+      </c>
+      <c r="AP2">
+        <v>1.4065663482331696</v>
+      </c>
+      <c r="AQ2">
+        <v>0.87567475921778637</v>
+      </c>
+      <c r="AR2">
+        <v>0.99492211475933812</v>
+      </c>
+      <c r="AS2">
+        <v>0.80197374033056656</v>
+      </c>
+      <c r="AT2">
+        <v>0.80731470400612959</v>
+      </c>
+      <c r="AU2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="159" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="0">
-        <v>0</v>
-      </c>
-      <c r="C3" s="0">
-        <v>0.32413602667856151</v>
-      </c>
-      <c r="D3" s="0">
-        <v>0.41579047983177198</v>
-      </c>
-      <c r="E3" s="0">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0">
+      <c r="A3" s="255" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.32413602667856145</v>
+      </c>
+      <c r="D3">
+        <v>0.41579047983177225</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>0.30846024766881186</v>
       </c>
-      <c r="H3" s="0">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>0.020263811890651885</v>
       </c>
-      <c r="J3" s="0">
-        <v>0</v>
-      </c>
-      <c r="K3" s="0">
-        <v>0</v>
-      </c>
-      <c r="L3" s="0">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>0.87189617451517643</v>
       </c>
-      <c r="M3" s="0">
+      <c r="M3">
         <v>0.0024002209052868583</v>
       </c>
-      <c r="N3" s="0">
-        <v>0.28394825718473199</v>
-      </c>
-      <c r="O3" s="0">
+      <c r="N3">
+        <v>0.28394825718473204</v>
+      </c>
+      <c r="O3">
         <v>0.030331995157076404</v>
       </c>
-      <c r="P3" s="0">
-        <v>0.32570785275812991</v>
-      </c>
-      <c r="Q3" s="0">
-        <v>0</v>
-      </c>
-      <c r="R3" s="0">
+      <c r="P3">
+        <v>0.32570785275812986</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>0.78185602922746844</v>
       </c>
-      <c r="S3" s="0">
-        <v>0</v>
-      </c>
-      <c r="T3" s="0">
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>0.029163746043883682</v>
       </c>
-      <c r="U3" s="0">
-        <v>0.8998704305529005</v>
-      </c>
-      <c r="V3" s="0">
-        <v>0.40368317084050215</v>
-      </c>
-      <c r="W3" s="0">
-        <v>0.76588287771617902</v>
-      </c>
-      <c r="X3" s="0">
+      <c r="U3">
+        <v>0.89987043055290039</v>
+      </c>
+      <c r="V3">
+        <v>0.40368317084050204</v>
+      </c>
+      <c r="W3">
+        <v>0.76588287771617924</v>
+      </c>
+      <c r="X3">
         <v>0.48662885787718518</v>
       </c>
-      <c r="Y3" s="0">
+      <c r="Y3">
         <v>0.018224686165806407</v>
       </c>
-      <c r="Z3" s="0">
+      <c r="Z3">
         <v>0.11153592897045392</v>
       </c>
-      <c r="AA3" s="0">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="0">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
         <v>0.031691412306973379</v>
       </c>
-      <c r="AC3" s="0">
-        <v>0.073132394485864186</v>
-      </c>
-      <c r="AD3" s="0">
-        <v>0.61205633084814881</v>
-      </c>
-      <c r="AE3" s="0">
-        <v>0.21686951719450284</v>
-      </c>
-      <c r="AF3" s="0">
+      <c r="AC3">
+        <v>0.073132394485864158</v>
+      </c>
+      <c r="AD3">
+        <v>0.6120563308481487</v>
+      </c>
+      <c r="AE3">
+        <v>0.21686951719450279</v>
+      </c>
+      <c r="AF3">
         <v>0.0053951868136536459</v>
       </c>
-      <c r="AG3" s="0">
+      <c r="AG3">
         <v>0.97342764289810735</v>
       </c>
-      <c r="AH3" s="0">
+      <c r="AH3">
         <v>0.57348286921982194</v>
       </c>
-      <c r="AI3" s="0">
-        <v>0.018203445272839267</v>
-      </c>
-      <c r="AJ3" s="0">
+      <c r="AI3">
+        <v>0.018203445272839271</v>
+      </c>
+      <c r="AJ3">
         <v>0.011724972917861466</v>
       </c>
-      <c r="AK3" s="0">
-        <v>0.18558168185390511</v>
-      </c>
-      <c r="AL3" s="0">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="0">
+      <c r="AK3">
+        <v>0.18558168185390506</v>
+      </c>
+      <c r="AL3">
+        <v>0.0061598589604706967</v>
+      </c>
+      <c r="AM3">
         <v>0.32250047792009173</v>
       </c>
-      <c r="AN3" s="0">
+      <c r="AN3">
         <v>0.013339280783364132</v>
       </c>
-      <c r="AO3" s="0">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="0">
-        <v>0.026699802459695405</v>
-      </c>
-      <c r="AQ3" s="0">
-        <v>0.9734488837910743</v>
-      </c>
-      <c r="AR3" s="0">
-        <v>1.1138087045179377</v>
-      </c>
-      <c r="AS3" s="0">
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0.026699802459695398</v>
+      </c>
+      <c r="AQ3">
+        <v>0.97344888379107464</v>
+      </c>
+      <c r="AR3">
+        <v>1.1138087045179379</v>
+      </c>
+      <c r="AS3">
         <v>0.012489645064678518</v>
       </c>
-      <c r="AT3" s="0">
-        <v>0.30274644746065121</v>
-      </c>
-      <c r="AU3" s="0">
+      <c r="AT3">
+        <v>0.30274644746065132</v>
+      </c>
+      <c r="AU3">
         <v>1</v>
       </c>
     </row>
@@ -1600,17 +1628,17 @@
     <col min="5" max="5" width="13.7109375" customWidth="true"/>
     <col min="6" max="6" width="12.7109375" customWidth="true"/>
     <col min="7" max="7" width="13.7109375" customWidth="true"/>
-    <col min="8" max="8" width="2.140625" customWidth="true"/>
+    <col min="8" max="8" width="15.7109375" customWidth="true"/>
     <col min="9" max="9" width="15.5703125" customWidth="true"/>
-    <col min="10" max="10" width="15.5703125" customWidth="true"/>
-    <col min="11" max="11" width="15.5703125" customWidth="true"/>
+    <col min="10" max="10" width="14.5703125" customWidth="true"/>
+    <col min="11" max="11" width="14.5703125" customWidth="true"/>
     <col min="12" max="12" width="12.7109375" customWidth="true"/>
-    <col min="13" max="13" width="13.7109375" customWidth="true"/>
+    <col min="13" max="13" width="14.7109375" customWidth="true"/>
     <col min="14" max="14" width="15.5703125" customWidth="true"/>
     <col min="15" max="15" width="15.5703125" customWidth="true"/>
     <col min="16" max="16" width="12.7109375" customWidth="true"/>
     <col min="17" max="17" width="11.7109375" customWidth="true"/>
-    <col min="18" max="18" width="14.5703125" customWidth="true"/>
+    <col min="18" max="18" width="13.5703125" customWidth="true"/>
     <col min="19" max="19" width="11.7109375" customWidth="true"/>
     <col min="20" max="20" width="13.7109375" customWidth="true"/>
     <col min="21" max="21" width="15.5703125" customWidth="true"/>
@@ -1630,10 +1658,10 @@
     <col min="35" max="35" width="13.7109375" customWidth="true"/>
     <col min="36" max="36" width="11.7109375" customWidth="true"/>
     <col min="37" max="37" width="11.7109375" customWidth="true"/>
-    <col min="38" max="38" width="2.140625" customWidth="true"/>
-    <col min="39" max="39" width="13.7109375" customWidth="true"/>
-    <col min="40" max="40" width="11.7109375" customWidth="true"/>
-    <col min="41" max="41" width="2.140625" customWidth="true"/>
+    <col min="38" max="38" width="11.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="14.5703125" customWidth="true"/>
     <col min="42" max="42" width="12.7109375" customWidth="true"/>
     <col min="43" max="43" width="12.7109375" customWidth="true"/>
     <col min="44" max="44" width="15.5703125" customWidth="true"/>
@@ -1643,339 +1671,293 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="257" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-      <c r="H1" s="0"/>
-      <c r="I1" s="0"/>
-      <c r="J1" s="0"/>
-      <c r="K1" s="0"/>
-      <c r="L1" s="0"/>
-      <c r="M1" s="0"/>
-      <c r="N1" s="0"/>
-      <c r="O1" s="0"/>
-      <c r="P1" s="0"/>
-      <c r="Q1" s="0"/>
-      <c r="R1" s="0"/>
-      <c r="S1" s="0"/>
-      <c r="T1" s="0"/>
-      <c r="U1" s="0"/>
-      <c r="V1" s="0"/>
-      <c r="W1" s="0"/>
-      <c r="X1" s="0"/>
-      <c r="Y1" s="0"/>
-      <c r="Z1" s="0"/>
-      <c r="AA1" s="0"/>
-      <c r="AB1" s="0"/>
-      <c r="AC1" s="0"/>
-      <c r="AD1" s="0"/>
-      <c r="AE1" s="0"/>
-      <c r="AF1" s="0"/>
-      <c r="AG1" s="0"/>
-      <c r="AH1" s="0"/>
-      <c r="AI1" s="0"/>
-      <c r="AJ1" s="0"/>
-      <c r="AK1" s="0"/>
-      <c r="AL1" s="0"/>
-      <c r="AM1" s="0"/>
-      <c r="AN1" s="0"/>
-      <c r="AO1" s="0"/>
-      <c r="AP1" s="0"/>
-      <c r="AQ1" s="0"/>
-      <c r="AR1" s="0"/>
-      <c r="AS1" s="0"/>
-      <c r="AT1" s="0"/>
-      <c r="AU1" s="0"/>
     </row>
     <row r="2">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="257" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="0">
-        <v>8.6884744014364343e-06</v>
-      </c>
-      <c r="C2" s="0">
-        <v>8.2374145060915778e-06</v>
-      </c>
-      <c r="D2" s="0">
-        <v>0.82455282687031062</v>
-      </c>
-      <c r="E2" s="0">
-        <v>0.011516919830584416</v>
-      </c>
-      <c r="F2" s="0">
-        <v>0.35471880531553934</v>
-      </c>
-      <c r="G2" s="0">
-        <v>0.068564033643513725</v>
-      </c>
-      <c r="H2" s="0">
-        <v>0</v>
-      </c>
-      <c r="I2" s="0">
-        <v>1.5170997933308116e-08</v>
-      </c>
-      <c r="J2" s="0">
-        <v>8.7945501374341773e-10</v>
-      </c>
-      <c r="K2" s="0">
-        <v>2.9618368831785912e-09</v>
-      </c>
-      <c r="L2" s="0">
-        <v>0.3029256076757883</v>
-      </c>
-      <c r="M2" s="0">
-        <v>0.044229665967361095</v>
-      </c>
-      <c r="N2" s="0">
-        <v>4.0197580194238241e-09</v>
-      </c>
-      <c r="O2" s="0">
-        <v>1.933405211023929e-09</v>
-      </c>
-      <c r="P2" s="0">
-        <v>0.22175346628743595</v>
-      </c>
-      <c r="Q2" s="0">
-        <v>2.8269641277732034</v>
-      </c>
-      <c r="R2" s="0">
-        <v>8.8754666795154372e-11</v>
-      </c>
-      <c r="S2" s="0">
-        <v>2.8436868913390141</v>
-      </c>
-      <c r="T2" s="0">
-        <v>0.0951467217868565</v>
-      </c>
-      <c r="U2" s="0">
-        <v>1.0474196732594569e-08</v>
-      </c>
-      <c r="V2" s="0">
-        <v>0.0082789376444131185</v>
-      </c>
-      <c r="W2" s="0">
-        <v>1.310805380896735</v>
-      </c>
-      <c r="X2" s="0">
-        <v>1.0531439115070815</v>
-      </c>
-      <c r="Y2" s="0">
-        <v>0.70327859212300137</v>
-      </c>
-      <c r="Z2" s="0">
-        <v>2.5785206658163104e-08</v>
-      </c>
-      <c r="AA2" s="0">
-        <v>1.0649824708011528</v>
-      </c>
-      <c r="AB2" s="0">
-        <v>1.350980754469196e-10</v>
-      </c>
-      <c r="AC2" s="0">
-        <v>0.51345547418905202</v>
-      </c>
-      <c r="AD2" s="0">
-        <v>0.17179301276296008</v>
-      </c>
-      <c r="AE2" s="0">
-        <v>0.13964273111381342</v>
-      </c>
-      <c r="AF2" s="0">
-        <v>0.36879954286807665</v>
-      </c>
-      <c r="AG2" s="0">
-        <v>0.58701853015360794</v>
-      </c>
-      <c r="AH2" s="0">
-        <v>0.17179189424975061</v>
-      </c>
-      <c r="AI2" s="0">
-        <v>0.050672496924178301</v>
-      </c>
-      <c r="AJ2" s="0">
-        <v>2.5499636077254291</v>
-      </c>
-      <c r="AK2" s="0">
-        <v>1.6283160261455103</v>
-      </c>
-      <c r="AL2" s="0">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="0">
-        <v>0.065053367338915077</v>
-      </c>
-      <c r="AN2" s="0">
-        <v>0.34962354303160437</v>
-      </c>
-      <c r="AO2" s="0">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="0">
-        <v>0.51298404015030463</v>
-      </c>
-      <c r="AQ2" s="0">
-        <v>0.5870288276865876</v>
-      </c>
-      <c r="AR2" s="0">
-        <v>2.6261838923521702e-08</v>
-      </c>
-      <c r="AS2" s="0">
-        <v>0.0073211852906549307</v>
-      </c>
-      <c r="AT2" s="0">
-        <v>0.1540050352698828</v>
-      </c>
-      <c r="AU2" s="0">
+      <c r="B2">
+        <v>9.4877594435942229e-08</v>
+      </c>
+      <c r="C2">
+        <v>9.1047711032127926e-08</v>
+      </c>
+      <c r="D2">
+        <v>0.81378281291499777</v>
+      </c>
+      <c r="E2">
+        <v>0.011366071381012194</v>
+      </c>
+      <c r="F2">
+        <v>0.37619817139562994</v>
+      </c>
+      <c r="G2">
+        <v>0.069857414684212735</v>
+      </c>
+      <c r="H2">
+        <v>0.0002015961472484079</v>
+      </c>
+      <c r="I2">
+        <v>1.9261792975627141e-06</v>
+      </c>
+      <c r="J2">
+        <v>7.9188210498497205e-06</v>
+      </c>
+      <c r="K2">
+        <v>3.381179630458806e-09</v>
+      </c>
+      <c r="L2">
+        <v>0.30101796128172043</v>
+      </c>
+      <c r="M2">
+        <v>0.0042790095873034692</v>
+      </c>
+      <c r="N2">
+        <v>1.3943721628721958e-05</v>
+      </c>
+      <c r="O2">
+        <v>1.268307033140115e-05</v>
+      </c>
+      <c r="P2">
+        <v>0.22476589609570807</v>
+      </c>
+      <c r="Q2">
+        <v>2.7646921656860814</v>
+      </c>
+      <c r="R2">
+        <v>5.2943109000803349e-08</v>
+      </c>
+      <c r="S2">
+        <v>2.8129046752344165</v>
+      </c>
+      <c r="T2">
+        <v>0.095516951322819482</v>
+      </c>
+      <c r="U2">
+        <v>4.4795285563939482e-08</v>
+      </c>
+      <c r="V2">
+        <v>0.0079978236415130834</v>
+      </c>
+      <c r="W2">
+        <v>1.2583062037321746</v>
+      </c>
+      <c r="X2">
+        <v>1.0452473392942263</v>
+      </c>
+      <c r="Y2">
+        <v>0.76085806483844209</v>
+      </c>
+      <c r="Z2">
+        <v>4.9500090056086647e-06</v>
+      </c>
+      <c r="AA2">
+        <v>1.1063838183636607</v>
+      </c>
+      <c r="AB2">
+        <v>1.7500801375531496e-08</v>
+      </c>
+      <c r="AC2">
+        <v>0.63956061360596517</v>
+      </c>
+      <c r="AD2">
+        <v>0.18058535006296902</v>
+      </c>
+      <c r="AE2">
+        <v>0.12899351776326415</v>
+      </c>
+      <c r="AF2">
+        <v>0.36467011639762659</v>
+      </c>
+      <c r="AG2">
+        <v>0.58066428427979122</v>
+      </c>
+      <c r="AH2">
+        <v>0.18058362935859781</v>
+      </c>
+      <c r="AI2">
+        <v>0.056444753881069037</v>
+      </c>
+      <c r="AJ2">
+        <v>2.5018741892933201</v>
+      </c>
+      <c r="AK2">
+        <v>1.6106898740633915</v>
+      </c>
+      <c r="AL2">
+        <v>5.2840416724135224</v>
+      </c>
+      <c r="AM2">
+        <v>0.064347497500594944</v>
+      </c>
+      <c r="AN2">
+        <v>0.34974043518873649</v>
+      </c>
+      <c r="AO2">
+        <v>9.4226027902687861e-08</v>
+      </c>
+      <c r="AP2">
+        <v>0.50743106635233381</v>
+      </c>
+      <c r="AQ2">
+        <v>0.58067447779348236</v>
+      </c>
+      <c r="AR2">
+        <v>6.7244831782876739e-06</v>
+      </c>
+      <c r="AS2">
+        <v>0.0070805239912184832</v>
+      </c>
+      <c r="AT2">
+        <v>0.15969992291524054</v>
+      </c>
+      <c r="AU2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="257" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="0">
-        <v>0</v>
-      </c>
-      <c r="C3" s="0">
-        <v>0.32413602667856151</v>
-      </c>
-      <c r="D3" s="0">
-        <v>0.41579047983177198</v>
-      </c>
-      <c r="E3" s="0">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.32413602667856145</v>
+      </c>
+      <c r="D3">
+        <v>0.41579047983177225</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>0.30846024766881186</v>
       </c>
-      <c r="H3" s="0">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>0.020263811890651885</v>
       </c>
-      <c r="J3" s="0">
-        <v>0</v>
-      </c>
-      <c r="K3" s="0">
-        <v>0</v>
-      </c>
-      <c r="L3" s="0">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>0.87189617451517643</v>
       </c>
-      <c r="M3" s="0">
+      <c r="M3">
         <v>0.0024002209052868583</v>
       </c>
-      <c r="N3" s="0">
-        <v>0.28394825718473199</v>
-      </c>
-      <c r="O3" s="0">
+      <c r="N3">
+        <v>0.28394825718473204</v>
+      </c>
+      <c r="O3">
         <v>0.030331995157076404</v>
       </c>
-      <c r="P3" s="0">
-        <v>0.32570785275812991</v>
-      </c>
-      <c r="Q3" s="0">
-        <v>0</v>
-      </c>
-      <c r="R3" s="0">
+      <c r="P3">
+        <v>0.32570785275812986</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>0.78185602922746844</v>
       </c>
-      <c r="S3" s="0">
-        <v>0</v>
-      </c>
-      <c r="T3" s="0">
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>0.029163746043883682</v>
       </c>
-      <c r="U3" s="0">
-        <v>0.8998704305529005</v>
-      </c>
-      <c r="V3" s="0">
-        <v>0.40368317084050215</v>
-      </c>
-      <c r="W3" s="0">
-        <v>0.76588287771617902</v>
-      </c>
-      <c r="X3" s="0">
+      <c r="U3">
+        <v>0.89987043055290039</v>
+      </c>
+      <c r="V3">
+        <v>0.40368317084050204</v>
+      </c>
+      <c r="W3">
+        <v>0.76588287771617924</v>
+      </c>
+      <c r="X3">
         <v>0.48662885787718518</v>
       </c>
-      <c r="Y3" s="0">
+      <c r="Y3">
         <v>0.018224686165806407</v>
       </c>
-      <c r="Z3" s="0">
+      <c r="Z3">
         <v>0.11153592897045392</v>
       </c>
-      <c r="AA3" s="0">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="0">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
         <v>0.031691412306973379</v>
       </c>
-      <c r="AC3" s="0">
-        <v>0.073132394485864186</v>
-      </c>
-      <c r="AD3" s="0">
-        <v>0.61205633084814881</v>
-      </c>
-      <c r="AE3" s="0">
-        <v>0.21686951719450284</v>
-      </c>
-      <c r="AF3" s="0">
+      <c r="AC3">
+        <v>0.073132394485864158</v>
+      </c>
+      <c r="AD3">
+        <v>0.6120563308481487</v>
+      </c>
+      <c r="AE3">
+        <v>0.21686951719450279</v>
+      </c>
+      <c r="AF3">
         <v>0.0053951868136536459</v>
       </c>
-      <c r="AG3" s="0">
+      <c r="AG3">
         <v>0.97342764289810735</v>
       </c>
-      <c r="AH3" s="0">
+      <c r="AH3">
         <v>0.57348286921982194</v>
       </c>
-      <c r="AI3" s="0">
-        <v>0.018203445272839267</v>
-      </c>
-      <c r="AJ3" s="0">
+      <c r="AI3">
+        <v>0.018203445272839271</v>
+      </c>
+      <c r="AJ3">
         <v>0.011724972917861466</v>
       </c>
-      <c r="AK3" s="0">
-        <v>0.18558168185390511</v>
-      </c>
-      <c r="AL3" s="0">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="0">
+      <c r="AK3">
+        <v>0.18558168185390506</v>
+      </c>
+      <c r="AL3">
+        <v>0.0061598589604706967</v>
+      </c>
+      <c r="AM3">
         <v>0.32250047792009173</v>
       </c>
-      <c r="AN3" s="0">
+      <c r="AN3">
         <v>0.013339280783364132</v>
       </c>
-      <c r="AO3" s="0">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="0">
-        <v>0.026699802459695405</v>
-      </c>
-      <c r="AQ3" s="0">
-        <v>0.9734488837910743</v>
-      </c>
-      <c r="AR3" s="0">
-        <v>1.1138087045179377</v>
-      </c>
-      <c r="AS3" s="0">
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0.026699802459695398</v>
+      </c>
+      <c r="AQ3">
+        <v>0.97344888379107464</v>
+      </c>
+      <c r="AR3">
+        <v>1.1138087045179379</v>
+      </c>
+      <c r="AS3">
         <v>0.012489645064678518</v>
       </c>
-      <c r="AT3" s="0">
-        <v>0.30274644746065121</v>
-      </c>
-      <c r="AU3" s="0">
+      <c r="AT3">
+        <v>0.30274644746065132</v>
+      </c>
+      <c r="AU3">
         <v>1</v>
       </c>
     </row>
